--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\HR_ASSISTANT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC5CCB2-AAFD-476E-8F85-FC8E73089B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330D413-659D-4E25-B650-516F144D053D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{02C34F65-11BB-4A35-B7C6-86C8394C39E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02C34F65-11BB-4A35-B7C6-86C8394C39E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>HR_Mail_Address</t>
   </si>
   <si>
-    <t>stevendeke639@gmail.com</t>
-  </si>
-  <si>
     <t>Attachment_Folder_Path</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Data\HRmail.txt</t>
+  </si>
+  <si>
+    <t>stevendeke@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -464,17 +464,17 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" customWidth="1"/>
-    <col min="3" max="3" width="51.81640625" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,7 +486,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -494,52 +494,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -556,14 +556,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -574,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
